--- a/data/trans_orig/P14C23_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85474AC2-5E66-4E97-83DC-C87A19A57C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2484713E-28A6-4C02-8688-F6BF33873582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EA612086-79F8-42BB-BD07-142BDBB4A23B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F994C938-C15C-4112-AE2E-989C057018D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="173">
   <si>
     <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2015 (Tasa respuesta: 4,16%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>44,39%</t>
   </si>
   <si>
-    <t>85,39%</t>
+    <t>84,33%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>37,44%</t>
   </si>
   <si>
-    <t>80,76%</t>
+    <t>80,68%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,7 +119,7 @@
     <t>18,17%</t>
   </si>
   <si>
-    <t>79,71%</t>
+    <t>78,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>57,15%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -158,10 +158,10 @@
     <t>31,97%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
   </si>
   <si>
     <t>16,03%</t>
@@ -173,7 +173,7 @@
     <t>10,87%</t>
   </si>
   <si>
-    <t>45,77%</t>
+    <t>45,91%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,49 +182,49 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>56,99%</t>
+    <t>59,69%</t>
   </si>
   <si>
     <t>57,96%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>43,01%</t>
+    <t>40,31%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
   </si>
   <si>
     <t>46,38%</t>
   </si>
   <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -233,13 +233,13 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>22,96%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>19,01%</t>
+    <t>17,55%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,313 +248,310 @@
     <t>78,84%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>42,54%</t>
+    <t>42,28%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>33,26%</t>
+    <t>27,94%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -969,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1F5598-1647-42BF-A387-716D55205298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000566F-F10E-4351-A50A-1AF54534B24E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2055,7 +2052,7 @@
         <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2108,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2123,13 +2120,13 @@
         <v>10338</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2138,13 +2135,13 @@
         <v>61317</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -2153,13 +2150,13 @@
         <v>71655</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2171,13 @@
         <v>5246</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2189,13 +2186,13 @@
         <v>24224</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -2204,13 +2201,13 @@
         <v>29470</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2222,13 @@
         <v>890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2240,13 +2237,13 @@
         <v>2718</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2413,10 +2410,10 @@
         <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2428,13 @@
         <v>6286</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -2446,13 +2443,13 @@
         <v>15952</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -2461,13 +2458,13 @@
         <v>22239</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2520,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C23_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2484713E-28A6-4C02-8688-F6BF33873582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D1E95E7-51F9-437A-A89E-B9FA425174FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F994C938-C15C-4112-AE2E-989C057018D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7543810-39C7-4352-8A21-965A48334EA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="173">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2015 (Tasa respuesta: 4,16%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="176">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2016 (Tasa respuesta: 4,16%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -86,7 +86,7 @@
     <t>44,39%</t>
   </si>
   <si>
-    <t>84,33%</t>
+    <t>85,16%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,7 +101,7 @@
     <t>37,44%</t>
   </si>
   <si>
-    <t>80,68%</t>
+    <t>80,76%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,7 +119,7 @@
     <t>18,17%</t>
   </si>
   <si>
-    <t>78,12%</t>
+    <t>67,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,16 +134,16 @@
     <t>36,82%</t>
   </si>
   <si>
-    <t>85,65%</t>
+    <t>83,24%</t>
   </si>
   <si>
     <t>57,15%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -152,28 +152,31 @@
     <t>47,15%</t>
   </si>
   <si>
-    <t>84,28%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>16,03%</t>
   </si>
   <si>
-    <t>67,42%</t>
+    <t>67,68%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>45,91%</t>
+    <t>45,18%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,49 +185,49 @@
     <t>14,09%</t>
   </si>
   <si>
-    <t>59,69%</t>
+    <t>45,6%</t>
   </si>
   <si>
     <t>57,96%</t>
   </si>
   <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>47,88%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>40,31%</t>
+    <t>54,4%</t>
   </si>
   <si>
     <t>34,59%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>46,38%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -233,13 +236,13 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>21,77%</t>
+    <t>23,27%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>17,55%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -248,76 +251,76 @@
     <t>78,84%</t>
   </si>
   <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>60,32%</t>
   </si>
   <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>42,28%</t>
+    <t>41,3%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>27,94%</t>
+    <t>27,97%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -326,232 +329,238 @@
     <t>70,66%</t>
   </si>
   <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>30,3%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>11,14%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -966,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000566F-F10E-4351-A50A-1AF54534B24E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC024A52-9E7D-426A-9CFE-B6F19A8F9555}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1365,10 +1374,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1377,13 +1386,13 @@
         <v>2872</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,13 +1422,13 @@
         <v>976</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1428,13 +1437,13 @@
         <v>976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1490,7 +1499,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1502,13 +1511,13 @@
         <v>1016</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -1517,13 +1526,13 @@
         <v>14026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -1532,13 +1541,13 @@
         <v>15043</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,10 +1562,10 @@
         <v>6199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1568,13 +1577,13 @@
         <v>8371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -1583,13 +1592,13 @@
         <v>14569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1619,13 +1628,13 @@
         <v>1803</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1634,13 +1643,13 @@
         <v>1803</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,7 +1705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1708,13 +1717,13 @@
         <v>12275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -1723,13 +1732,13 @@
         <v>27831</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -1738,13 +1747,13 @@
         <v>40106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,13 +1768,13 @@
         <v>2209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -1774,13 +1783,13 @@
         <v>13314</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1789,13 +1798,13 @@
         <v>15523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1819,13 @@
         <v>1086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1825,13 +1834,13 @@
         <v>4997</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -1840,13 +1849,13 @@
         <v>6083</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,7 +1911,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1914,13 +1923,13 @@
         <v>14965</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -1929,13 +1938,13 @@
         <v>47217</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
@@ -1944,13 +1953,13 @@
         <v>62182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1974,13 @@
         <v>1905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -1980,13 +1989,13 @@
         <v>14673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -1995,13 +2004,13 @@
         <v>16578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2025,13 @@
         <v>4310</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2031,13 +2040,13 @@
         <v>4498</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2046,13 +2055,13 @@
         <v>8808</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2117,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2120,13 +2129,13 @@
         <v>10338</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2135,13 +2144,13 @@
         <v>61317</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -2150,13 +2159,13 @@
         <v>71655</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2180,13 @@
         <v>5246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2186,13 +2195,13 @@
         <v>24224</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -2201,13 +2210,13 @@
         <v>29470</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2231,13 @@
         <v>890</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2237,13 +2246,13 @@
         <v>2718</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2252,13 +2261,13 @@
         <v>3608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2335,13 @@
         <v>42888</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
         <v>137</v>
@@ -2341,13 +2350,13 @@
         <v>153577</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>179</v>
@@ -2356,13 +2365,13 @@
         <v>196465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2386,13 @@
         <v>16536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
         <v>58</v>
@@ -2392,13 +2401,13 @@
         <v>64454</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -2407,13 +2416,13 @@
         <v>80990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2437,13 @@
         <v>6286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -2443,13 +2452,13 @@
         <v>15952</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -2458,13 +2467,13 @@
         <v>22239</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,7 +2529,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
